--- a/软件开发/00_设计方案/04_安卓画面设计/数据可视化画面设计20190816_三菱.xlsx
+++ b/软件开发/00_设计方案/04_安卓画面设计/数据可视化画面设计20190816_三菱.xlsx
@@ -576,13 +576,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -603,12 +603,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -742,7 +736,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,21 +762,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,7 +770,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,43 +783,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -842,10 +799,42 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,24 +853,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,6 +863,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,7 +934,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,13 +1012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,19 +1030,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,25 +1090,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,103 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,15 +1410,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1454,17 +1463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1478,16 +1481,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1503,25 +1506,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1530,169 +1524,169 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="52" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="55" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="55"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="54">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1703,222 +1697,222 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="55" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="55" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="55" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="55" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="55" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="53" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="52" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="55" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="55" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="55" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="55" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="55" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="55" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="55" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="55" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="55" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="55" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="55" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="55" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="54" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="54" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="54" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="54" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="54" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="54" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="54" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="54" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="54" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="54" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="54" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="54" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="54" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="54" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="23" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1975,8 +1969,8 @@
     <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="52"/>
-    <cellStyle name="標準_G-BOOKアプリ動作確認_TCS0715実施①" xfId="53"/>
+    <cellStyle name="標準_G-BOOKアプリ動作確認_TCS0715実施①" xfId="52"/>
+    <cellStyle name="常规 2" xfId="53"/>
     <cellStyle name="標準_ITDOC-P3-002_DFD" xfId="54"/>
     <cellStyle name="常规 3" xfId="55"/>
   </cellStyles>
@@ -6366,9 +6360,9 @@
   <dimension ref="A1:BR379"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66:AX80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
